--- a/figs_src/data_all.xlsx
+++ b/figs_src/data_all.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="14385" yWindow="-15" windowWidth="14430" windowHeight="14850" firstSheet="12" activeTab="13"/>
+    <workbookView xWindow="14385" yWindow="-15" windowWidth="14430" windowHeight="13620" firstSheet="9" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="full_mon" sheetId="4" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="506" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="511" uniqueCount="90">
   <si>
     <t>DIFT</t>
   </si>
@@ -1150,11 +1150,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="143492608"/>
-        <c:axId val="143494144"/>
+        <c:axId val="153243648"/>
+        <c:axId val="153245184"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="143492608"/>
+        <c:axId val="153243648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1163,7 +1163,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="143494144"/>
+        <c:crossAx val="153245184"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1171,7 +1171,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="143494144"/>
+        <c:axId val="153245184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1209,7 +1209,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="143492608"/>
+        <c:crossAx val="153243648"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1936,11 +1936,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="164387072"/>
-        <c:axId val="164392960"/>
+        <c:axId val="153654784"/>
+        <c:axId val="153656320"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="164387072"/>
+        <c:axId val="153654784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1957,7 +1957,7 @@
             <a:round/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="164392960"/>
+        <c:crossAx val="153656320"/>
         <c:crossesAt val="0"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1965,7 +1965,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="164392960"/>
+        <c:axId val="153656320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1993,7 +1993,7 @@
             <a:round/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="164387072"/>
+        <c:crossAx val="153654784"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2008,7 +2008,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2849,11 +2848,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="100"/>
-        <c:axId val="143937536"/>
-        <c:axId val="143939072"/>
+        <c:axId val="154369408"/>
+        <c:axId val="154375296"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="143937536"/>
+        <c:axId val="154369408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2862,7 +2861,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="143939072"/>
+        <c:crossAx val="154375296"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2870,7 +2869,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="143939072"/>
+        <c:axId val="154375296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.1"/>
@@ -2894,14 +2893,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0.0%" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="143937536"/>
+        <c:crossAx val="154369408"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3615,11 +3613,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="144654336"/>
-        <c:axId val="144655872"/>
+        <c:axId val="158692096"/>
+        <c:axId val="158693632"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="144654336"/>
+        <c:axId val="158692096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3628,7 +3626,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="144655872"/>
+        <c:crossAx val="158693632"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3636,7 +3634,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="144655872"/>
+        <c:axId val="158693632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3668,14 +3666,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0.0_);[Red]\(0.0\)" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="144654336"/>
+        <c:crossAx val="158692096"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4450,11 +4447,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="144755328"/>
-        <c:axId val="144761216"/>
+        <c:axId val="158842240"/>
+        <c:axId val="158925952"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="144755328"/>
+        <c:axId val="158842240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4463,7 +4460,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="144761216"/>
+        <c:crossAx val="158925952"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4471,7 +4468,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="144761216"/>
+        <c:axId val="158925952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -4501,7 +4498,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="144755328"/>
+        <c:crossAx val="158842240"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4776,11 +4773,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="144905728"/>
-        <c:axId val="144907264"/>
+        <c:axId val="158996736"/>
+        <c:axId val="158998528"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="144905728"/>
+        <c:axId val="158996736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4789,7 +4786,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="144907264"/>
+        <c:crossAx val="158998528"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4797,7 +4794,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="144907264"/>
+        <c:axId val="158998528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -4827,7 +4824,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="144905728"/>
+        <c:crossAx val="158996736"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5100,11 +5097,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="145097088"/>
-        <c:axId val="145098624"/>
+        <c:axId val="159188096"/>
+        <c:axId val="159189632"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="145097088"/>
+        <c:axId val="159188096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5113,7 +5110,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="low"/>
-        <c:crossAx val="145098624"/>
+        <c:crossAx val="159189632"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5121,7 +5118,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="145098624"/>
+        <c:axId val="159189632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.60000000000000009"/>
@@ -5152,7 +5149,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="145097088"/>
+        <c:crossAx val="159188096"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5428,11 +5425,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="145252736"/>
-        <c:axId val="145254272"/>
+        <c:axId val="159299072"/>
+        <c:axId val="159300608"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="145252736"/>
+        <c:axId val="159299072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5441,7 +5438,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="145254272"/>
+        <c:crossAx val="159300608"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5449,7 +5446,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="145254272"/>
+        <c:axId val="159300608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -5479,7 +5476,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="145252736"/>
+        <c:crossAx val="159299072"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5752,11 +5749,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="145316864"/>
-        <c:axId val="145347328"/>
+        <c:axId val="159433088"/>
+        <c:axId val="159434624"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="145316864"/>
+        <c:axId val="159433088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5765,7 +5762,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="low"/>
-        <c:crossAx val="145347328"/>
+        <c:crossAx val="159434624"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5773,7 +5770,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="145347328"/>
+        <c:axId val="159434624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5802,7 +5799,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="145316864"/>
+        <c:crossAx val="159433088"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6241,11 +6238,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="145442688"/>
-        <c:axId val="145444224"/>
+        <c:axId val="159525888"/>
+        <c:axId val="159539968"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="145442688"/>
+        <c:axId val="159525888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6254,7 +6251,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="145444224"/>
+        <c:crossAx val="159539968"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6262,7 +6259,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="145444224"/>
+        <c:axId val="159539968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -6292,7 +6289,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="145442688"/>
+        <c:crossAx val="159525888"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7006,11 +7003,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="143608448"/>
-        <c:axId val="143618432"/>
+        <c:axId val="153347200"/>
+        <c:axId val="153348736"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="143608448"/>
+        <c:axId val="153347200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7019,7 +7016,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="143618432"/>
+        <c:crossAx val="153348736"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7027,7 +7024,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="143618432"/>
+        <c:axId val="153348736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7065,7 +7062,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="143608448"/>
+        <c:crossAx val="153347200"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7739,11 +7736,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="143766272"/>
-        <c:axId val="143767808"/>
+        <c:axId val="153566208"/>
+        <c:axId val="153576192"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="143766272"/>
+        <c:axId val="153566208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7763,7 +7760,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="143767808"/>
+        <c:crossAx val="153576192"/>
         <c:crosses val="autoZero"/>
         <c:auto val="0"/>
         <c:lblAlgn val="ctr"/>
@@ -7771,7 +7768,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="143767808"/>
+        <c:axId val="153576192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -7809,7 +7806,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="143766272"/>
+        <c:crossAx val="153566208"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8484,11 +8481,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="144018048"/>
-        <c:axId val="144023936"/>
+        <c:axId val="153691264"/>
+        <c:axId val="153692800"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="144018048"/>
+        <c:axId val="153691264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8497,7 +8494,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="144023936"/>
+        <c:crossAx val="153692800"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8505,7 +8502,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="144023936"/>
+        <c:axId val="153692800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -8535,7 +8532,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="144018048"/>
+        <c:crossAx val="153691264"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9209,11 +9206,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="144118528"/>
-        <c:axId val="144120064"/>
+        <c:axId val="153792896"/>
+        <c:axId val="153794432"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="144118528"/>
+        <c:axId val="153792896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9233,7 +9230,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="144120064"/>
+        <c:crossAx val="153794432"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9241,7 +9238,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="144120064"/>
+        <c:axId val="153794432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -9271,7 +9268,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="144118528"/>
+        <c:crossAx val="153792896"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9946,11 +9943,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="144214656"/>
-        <c:axId val="144228736"/>
+        <c:axId val="153954944"/>
+        <c:axId val="153964928"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="144214656"/>
+        <c:axId val="153954944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9959,7 +9956,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="144228736"/>
+        <c:crossAx val="153964928"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9967,7 +9964,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="144228736"/>
+        <c:axId val="153964928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -9997,7 +9994,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="144214656"/>
+        <c:crossAx val="153954944"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -10776,11 +10773,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="144382208"/>
-        <c:axId val="144388096"/>
+        <c:axId val="154061056"/>
+        <c:axId val="154066944"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="144382208"/>
+        <c:axId val="154061056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10789,7 +10786,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="144388096"/>
+        <c:crossAx val="154066944"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -10797,7 +10794,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="144388096"/>
+        <c:axId val="154066944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -10828,7 +10825,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="144382208"/>
+        <c:crossAx val="154061056"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -11336,11 +11333,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="158471680"/>
-        <c:axId val="158473216"/>
+        <c:axId val="154229376"/>
+        <c:axId val="154243456"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="158471680"/>
+        <c:axId val="154229376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11357,7 +11354,7 @@
             <a:round/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="158473216"/>
+        <c:crossAx val="154243456"/>
         <c:crossesAt val="0"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -11365,7 +11362,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="158473216"/>
+        <c:axId val="154243456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11393,7 +11390,7 @@
             <a:round/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="158471680"/>
+        <c:crossAx val="154229376"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -11898,11 +11895,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="158532736"/>
-        <c:axId val="158534272"/>
+        <c:axId val="154268416"/>
+        <c:axId val="154269952"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="158532736"/>
+        <c:axId val="154268416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11919,7 +11916,7 @@
             <a:round/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="158534272"/>
+        <c:crossAx val="154269952"/>
         <c:crossesAt val="0"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -11927,7 +11924,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="158534272"/>
+        <c:axId val="154269952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11955,7 +11952,7 @@
             <a:round/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="158532736"/>
+        <c:crossAx val="154268416"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -12144,7 +12141,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="294" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="286" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
   <pageSetup paperSize="156" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -12156,7 +12153,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="143" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="217" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
   <pageSetup paperSize="159" orientation="portrait" r:id="rId1"/>
@@ -12790,7 +12787,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="2925536" cy="2024872"/>
+    <xdr:ext cx="2930769" cy="2028226"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1"/>
@@ -12918,7 +12915,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="6129893" cy="2027715"/>
+    <xdr:ext cx="6127604" cy="2023514"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1"/>
@@ -12954,689 +12951,6 @@
         <row r="2">
           <cell r="B2" t="str">
             <v>perlbench</v>
-          </cell>
-          <cell r="C2" t="str">
-            <v>bzip2</v>
-          </cell>
-          <cell r="D2" t="str">
-            <v>gcc</v>
-          </cell>
-          <cell r="E2" t="str">
-            <v>mcf</v>
-          </cell>
-          <cell r="F2" t="str">
-            <v>gobmk</v>
-          </cell>
-          <cell r="G2" t="str">
-            <v>hmmer</v>
-          </cell>
-          <cell r="H2" t="str">
-            <v>sjeng</v>
-          </cell>
-          <cell r="I2" t="str">
-            <v>libquantum</v>
-          </cell>
-          <cell r="J2" t="str">
-            <v>h264ref</v>
-          </cell>
-          <cell r="K2" t="str">
-            <v>omnetpp</v>
-          </cell>
-          <cell r="L2" t="str">
-            <v>astar</v>
-          </cell>
-          <cell r="M2" t="str">
-            <v>xalan</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="A3" t="str">
-            <v>LOAD</v>
-          </cell>
-          <cell r="B3">
-            <v>0.39740102488099999</v>
-          </cell>
-          <cell r="C3">
-            <v>0.45960570007899998</v>
-          </cell>
-          <cell r="D3">
-            <v>0.37453852864100001</v>
-          </cell>
-          <cell r="E3">
-            <v>0.56473212498900005</v>
-          </cell>
-          <cell r="F3">
-            <v>0.36113374603499998</v>
-          </cell>
-          <cell r="G3">
-            <v>0.41535975840900002</v>
-          </cell>
-          <cell r="H3">
-            <v>0.37630412517200001</v>
-          </cell>
-          <cell r="I3">
-            <v>0.38097182486499998</v>
-          </cell>
-          <cell r="J3">
-            <v>0.35014465301800002</v>
-          </cell>
-          <cell r="K3">
-            <v>0.238616230554</v>
-          </cell>
-          <cell r="L3">
-            <v>0.25086324169099999</v>
-          </cell>
-          <cell r="M3">
-            <v>0.35483787097800001</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="A4" t="str">
-            <v>STORE</v>
-          </cell>
-          <cell r="B4">
-            <v>0.20739329704100001</v>
-          </cell>
-          <cell r="C4">
-            <v>8.2683124288799995E-2</v>
-          </cell>
-          <cell r="D4">
-            <v>0.16760200967200001</v>
-          </cell>
-          <cell r="E4">
-            <v>7.9065312786299996E-2</v>
-          </cell>
-          <cell r="F4">
-            <v>0.15272015018099999</v>
-          </cell>
-          <cell r="G4">
-            <v>0.148839138427</v>
-          </cell>
-          <cell r="H4">
-            <v>0.171776421978</v>
-          </cell>
-          <cell r="I4">
-            <v>0.17995704014</v>
-          </cell>
-          <cell r="J4">
-            <v>0.15483263923599999</v>
-          </cell>
-          <cell r="K4">
-            <v>0.15847287613300001</v>
-          </cell>
-          <cell r="L4">
-            <v>0.137869624212</v>
-          </cell>
-          <cell r="M4">
-            <v>0.148571461214</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="A5" t="str">
-            <v>INTALU</v>
-          </cell>
-          <cell r="B5">
-            <v>0.37147204499499997</v>
-          </cell>
-          <cell r="C5">
-            <v>0.45632263372199999</v>
-          </cell>
-          <cell r="D5">
-            <v>0.43947691022399998</v>
-          </cell>
-          <cell r="E5">
-            <v>0.35433121949500002</v>
-          </cell>
-          <cell r="F5">
-            <v>0.46852030597700001</v>
-          </cell>
-          <cell r="G5">
-            <v>0.43117061285500002</v>
-          </cell>
-          <cell r="H5">
-            <v>0.44463944660499999</v>
-          </cell>
-          <cell r="I5">
-            <v>0.41230429152800002</v>
-          </cell>
-          <cell r="J5">
-            <v>0.47531916823800002</v>
-          </cell>
-          <cell r="K5">
-            <v>0.54895749314499998</v>
-          </cell>
-          <cell r="L5">
-            <v>0.56424378552800003</v>
-          </cell>
-          <cell r="M5">
-            <v>0.46934756713300002</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="A6" t="str">
-            <v>INDCTRL</v>
-          </cell>
-          <cell r="B6">
-            <v>2.37336330825E-2</v>
-          </cell>
-          <cell r="C6">
-            <v>1.3885419105099999E-3</v>
-          </cell>
-          <cell r="D6">
-            <v>1.8382551463E-2</v>
-          </cell>
-          <cell r="E6">
-            <v>1.8713427302700001E-3</v>
-          </cell>
-          <cell r="F6">
-            <v>1.76257978074E-2</v>
-          </cell>
-          <cell r="G6">
-            <v>4.6304903089100001E-3</v>
-          </cell>
-          <cell r="H6">
-            <v>7.2800062448400002E-3</v>
-          </cell>
-          <cell r="I6">
-            <v>2.6766843467599999E-2</v>
-          </cell>
-          <cell r="J6">
-            <v>1.97035395073E-2</v>
-          </cell>
-          <cell r="K6">
-            <v>5.3953400168000001E-2</v>
-          </cell>
-          <cell r="L6">
-            <v>4.70233485688E-2</v>
-          </cell>
-          <cell r="M6">
-            <v>2.72431006745E-2</v>
-          </cell>
-        </row>
-        <row r="37">
-          <cell r="B37" t="str">
-            <v>perlbench</v>
-          </cell>
-          <cell r="C37" t="str">
-            <v>bzip2</v>
-          </cell>
-          <cell r="D37" t="str">
-            <v>gcc</v>
-          </cell>
-          <cell r="E37" t="str">
-            <v>mcf</v>
-          </cell>
-          <cell r="F37" t="str">
-            <v>gobmk</v>
-          </cell>
-          <cell r="G37" t="str">
-            <v>hmmer</v>
-          </cell>
-          <cell r="H37" t="str">
-            <v>sjeng</v>
-          </cell>
-          <cell r="I37" t="str">
-            <v>libquantum</v>
-          </cell>
-          <cell r="J37" t="str">
-            <v>h264ref</v>
-          </cell>
-          <cell r="K37" t="str">
-            <v>omnetpp</v>
-          </cell>
-          <cell r="L37" t="str">
-            <v>astar</v>
-          </cell>
-          <cell r="M37" t="str">
-            <v>xalan</v>
-          </cell>
-        </row>
-        <row r="38">
-          <cell r="A38" t="str">
-            <v>LOAD</v>
-          </cell>
-          <cell r="B38">
-            <v>0.39500914688700001</v>
-          </cell>
-          <cell r="C38">
-            <v>0.45386161017100002</v>
-          </cell>
-          <cell r="D38">
-            <v>0.366696804135</v>
-          </cell>
-          <cell r="E38">
-            <v>0.47283553351500002</v>
-          </cell>
-          <cell r="F38">
-            <v>0.33189064904100002</v>
-          </cell>
-          <cell r="G38">
-            <v>0.41687030899499999</v>
-          </cell>
-          <cell r="H38">
-            <v>0.36912214263499998</v>
-          </cell>
-          <cell r="I38">
-            <v>0.32644724845599998</v>
-          </cell>
-          <cell r="J38">
-            <v>0.38940034316099997</v>
-          </cell>
-          <cell r="K38">
-            <v>0.20548674869799999</v>
-          </cell>
-          <cell r="L38">
-            <v>0.30484337795299998</v>
-          </cell>
-          <cell r="M38">
-            <v>0.35050753022699999</v>
-          </cell>
-        </row>
-        <row r="39">
-          <cell r="A39" t="str">
-            <v>STORE</v>
-          </cell>
-          <cell r="B39">
-            <v>0.20171828276600001</v>
-          </cell>
-          <cell r="C39">
-            <v>0.10499694404899999</v>
-          </cell>
-          <cell r="D39">
-            <v>0.182792600591</v>
-          </cell>
-          <cell r="E39">
-            <v>0.13528581819300001</v>
-          </cell>
-          <cell r="F39">
-            <v>0.179752879916</v>
-          </cell>
-          <cell r="G39">
-            <v>0.16756481436699999</v>
-          </cell>
-          <cell r="H39">
-            <v>0.22790428580300001</v>
-          </cell>
-          <cell r="I39">
-            <v>0.17525210414199999</v>
-          </cell>
-          <cell r="J39">
-            <v>0.172559027984</v>
-          </cell>
-          <cell r="K39">
-            <v>0.206573036426</v>
-          </cell>
-          <cell r="L39">
-            <v>0.20370370334099999</v>
-          </cell>
-          <cell r="M39">
-            <v>0.13875611034499999</v>
-          </cell>
-        </row>
-        <row r="40">
-          <cell r="A40" t="str">
-            <v>INTALU</v>
-          </cell>
-          <cell r="B40">
-            <v>0.371283989481</v>
-          </cell>
-          <cell r="C40">
-            <v>0.43802082092200001</v>
-          </cell>
-          <cell r="D40">
-            <v>0.42512366985099997</v>
-          </cell>
-          <cell r="E40">
-            <v>0.385988595198</v>
-          </cell>
-          <cell r="F40">
-            <v>0.46558614270300003</v>
-          </cell>
-          <cell r="G40">
-            <v>0.41048671524399999</v>
-          </cell>
-          <cell r="H40">
-            <v>0.39068901652299998</v>
-          </cell>
-          <cell r="I40">
-            <v>0.46352186134000001</v>
-          </cell>
-          <cell r="J40">
-            <v>0.42008716853200001</v>
-          </cell>
-          <cell r="K40">
-            <v>0.54779517525400001</v>
-          </cell>
-          <cell r="L40">
-            <v>0.45868938518399999</v>
-          </cell>
-          <cell r="M40">
-            <v>0.47657538193900001</v>
-          </cell>
-        </row>
-        <row r="41">
-          <cell r="A41" t="str">
-            <v>INDCTRL</v>
-          </cell>
-          <cell r="B41">
-            <v>3.1988580866699999E-2</v>
-          </cell>
-          <cell r="C41">
-            <v>3.1206248582799998E-3</v>
-          </cell>
-          <cell r="D41">
-            <v>2.5386925421999999E-2</v>
-          </cell>
-          <cell r="E41">
-            <v>5.8900530943000002E-3</v>
-          </cell>
-          <cell r="F41">
-            <v>2.27703283402E-2</v>
-          </cell>
-          <cell r="G41">
-            <v>5.0781613943999999E-3</v>
-          </cell>
-          <cell r="H41">
-            <v>1.2284555038399999E-2</v>
-          </cell>
-          <cell r="I41">
-            <v>3.4778786062600001E-2</v>
-          </cell>
-          <cell r="J41">
-            <v>1.7953460322899999E-2</v>
-          </cell>
-          <cell r="K41">
-            <v>4.0145039622299997E-2</v>
-          </cell>
-          <cell r="L41">
-            <v>3.27635335215E-2</v>
-          </cell>
-          <cell r="M41">
-            <v>3.4160977489099999E-2</v>
-          </cell>
-        </row>
-        <row r="106">
-          <cell r="B106" t="str">
-            <v>perlbench</v>
-          </cell>
-          <cell r="C106" t="str">
-            <v>bzip2</v>
-          </cell>
-          <cell r="D106" t="str">
-            <v>gcc</v>
-          </cell>
-          <cell r="E106" t="str">
-            <v>mcf</v>
-          </cell>
-          <cell r="F106" t="str">
-            <v>gobmk</v>
-          </cell>
-          <cell r="G106" t="str">
-            <v>hmmer</v>
-          </cell>
-          <cell r="H106" t="str">
-            <v>sjeng</v>
-          </cell>
-          <cell r="I106" t="str">
-            <v>libquantum</v>
-          </cell>
-          <cell r="J106" t="str">
-            <v>h264ref</v>
-          </cell>
-          <cell r="K106" t="str">
-            <v>average</v>
-          </cell>
-          <cell r="L106" t="str">
-            <v>astar</v>
-          </cell>
-          <cell r="M106" t="str">
-            <v>xalan</v>
-          </cell>
-        </row>
-        <row r="107">
-          <cell r="A107" t="str">
-            <v>1.1x</v>
-          </cell>
-          <cell r="B107">
-            <v>3.3395902162399855E-3</v>
-          </cell>
-          <cell r="C107">
-            <v>9.9647776727479868E-3</v>
-          </cell>
-          <cell r="D107">
-            <v>1.0278860743200002E-2</v>
-          </cell>
-          <cell r="E107">
-            <v>3.7562378662352007E-2</v>
-          </cell>
-          <cell r="F107">
-            <v>1.3457736761959988E-2</v>
-          </cell>
-          <cell r="G107">
-            <v>8.3630932615960003E-3</v>
-          </cell>
-          <cell r="H107">
-            <v>2.5453874806224009E-2</v>
-          </cell>
-          <cell r="I107">
-            <v>2.46327921624E-2</v>
-          </cell>
-          <cell r="J107">
-            <v>2.3142847393159992E-2</v>
-          </cell>
-          <cell r="K107">
-            <v>1.7355105742208887E-2</v>
-          </cell>
-          <cell r="L107">
-            <v>5.0777649165920001E-2</v>
-          </cell>
-          <cell r="M107">
-            <v>6.5243447983200113E-3</v>
-          </cell>
-        </row>
-        <row r="108">
-          <cell r="A108" t="str">
-            <v>1.5x</v>
-          </cell>
-          <cell r="B108">
-            <v>5.6177351546799897E-3</v>
-          </cell>
-          <cell r="C108">
-            <v>5.1869823748080012E-3</v>
-          </cell>
-          <cell r="D108">
-            <v>1.9961620924800064E-3</v>
-          </cell>
-          <cell r="E108">
-            <v>1.2544100630024002E-2</v>
-          </cell>
-          <cell r="F108">
-            <v>1.0593910646639998E-2</v>
-          </cell>
-          <cell r="G108">
-            <v>1.0554785735460001E-2</v>
-          </cell>
-          <cell r="H108">
-            <v>2.0545897317211986E-2</v>
-          </cell>
-          <cell r="I108">
-            <v>2.9097698227680002E-2</v>
-          </cell>
-          <cell r="J108">
-            <v>1.7404170727399988E-2</v>
-          </cell>
-          <cell r="K108">
-            <v>1.2615715878487109E-2</v>
-          </cell>
-          <cell r="L108">
-            <v>6.0597885900600026E-3</v>
-          </cell>
-          <cell r="M108">
-            <v>7.0262790470000062E-3</v>
-          </cell>
-        </row>
-        <row r="109">
-          <cell r="A109" t="str">
-            <v>2.0x</v>
-          </cell>
-          <cell r="B109">
-            <v>4.0278646966400034E-3</v>
-          </cell>
-          <cell r="C109">
-            <v>4.6414591980319924E-3</v>
-          </cell>
-          <cell r="D109">
-            <v>2.0145998544000036E-3</v>
-          </cell>
-          <cell r="E109">
-            <v>3.4838932969759955E-3</v>
-          </cell>
-          <cell r="F109">
-            <v>9.742606390920009E-3</v>
-          </cell>
-          <cell r="G109">
-            <v>1.3877074977836006E-2</v>
-          </cell>
-          <cell r="H109">
-            <v>1.9766935114655992E-2</v>
-          </cell>
-          <cell r="I109">
-            <v>1.4087873728880016E-2</v>
-          </cell>
-          <cell r="J109">
-            <v>1.6492082312319994E-2</v>
-          </cell>
-          <cell r="K109">
-            <v>9.7927099522955568E-3</v>
-          </cell>
-          <cell r="L109">
-            <v>1.0646670190839999E-2</v>
-          </cell>
-          <cell r="M109">
-            <v>4.0070473131200018E-3</v>
-          </cell>
-        </row>
-        <row r="110">
-          <cell r="A110" t="str">
-            <v>4.0x</v>
-          </cell>
-          <cell r="B110">
-            <v>3.1711562413600084E-3</v>
-          </cell>
-          <cell r="C110">
-            <v>1.8539060968279994E-3</v>
-          </cell>
-          <cell r="D110">
-            <v>2.2751921545600103E-3</v>
-          </cell>
-          <cell r="E110">
-            <v>0</v>
-          </cell>
-          <cell r="F110">
-            <v>5.3449016953200004E-3</v>
-          </cell>
-          <cell r="G110">
-            <v>9.8630905931360088E-3</v>
-          </cell>
-          <cell r="H110">
-            <v>4.5556515036799918E-3</v>
-          </cell>
-          <cell r="I110">
-            <v>3.9330345255999908E-3</v>
-          </cell>
-          <cell r="J110">
-            <v>1.0032992300799995E-2</v>
-          </cell>
-          <cell r="K110">
-            <v>4.5588805679204446E-3</v>
-          </cell>
-          <cell r="L110">
-            <v>6.3597717480799966E-3</v>
-          </cell>
-          <cell r="M110">
-            <v>9.7196822183999031E-4</v>
-          </cell>
-        </row>
-        <row r="111">
-          <cell r="A111" t="str">
-            <v>6.0x</v>
-          </cell>
-          <cell r="B111">
-            <v>0</v>
-          </cell>
-          <cell r="C111">
-            <v>0</v>
-          </cell>
-          <cell r="D111">
-            <v>0</v>
-          </cell>
-          <cell r="E111">
-            <v>0</v>
-          </cell>
-          <cell r="F111">
-            <v>0</v>
-          </cell>
-          <cell r="G111">
-            <v>0</v>
-          </cell>
-          <cell r="H111">
-            <v>0</v>
-          </cell>
-          <cell r="I111">
-            <v>0</v>
-          </cell>
-          <cell r="J111">
-            <v>1.273132925999898E-4</v>
-          </cell>
-          <cell r="K111">
-            <v>1.4145921399998867E-5</v>
-          </cell>
-          <cell r="L111">
-            <v>0</v>
-          </cell>
-          <cell r="M111">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="112">
-          <cell r="A112" t="str">
-            <v>700% Overhead</v>
-          </cell>
-          <cell r="B112">
-            <v>0</v>
-          </cell>
-          <cell r="C112">
-            <v>0</v>
-          </cell>
-          <cell r="D112">
-            <v>0</v>
-          </cell>
-          <cell r="E112">
-            <v>0</v>
-          </cell>
-          <cell r="F112">
-            <v>0</v>
-          </cell>
-          <cell r="G112">
-            <v>0</v>
-          </cell>
-          <cell r="H112">
-            <v>0</v>
-          </cell>
-          <cell r="I112">
-            <v>0</v>
-          </cell>
-          <cell r="J112">
-            <v>0</v>
-          </cell>
-          <cell r="K112">
-            <v>0</v>
-          </cell>
-          <cell r="L112">
-            <v>0</v>
-          </cell>
-          <cell r="M112">
-            <v>0</v>
           </cell>
         </row>
         <row r="116">
@@ -13944,6 +13258,7 @@
           </cell>
         </row>
       </sheetData>
+      <sheetData sheetId="1" refreshError="1"/>
       <sheetData sheetId="2"/>
     </sheetDataSet>
   </externalBook>
@@ -18003,10 +17318,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K19"/>
+  <dimension ref="A1:K25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B25" sqref="B25:I25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -18628,6 +17943,191 @@
       <c r="I19" s="8">
         <f t="shared" si="4"/>
         <v>3.5759505225218757E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
+      <c r="A21" t="s">
+        <v>48</v>
+      </c>
+      <c r="B21" s="8">
+        <f>B2</f>
+        <v>1</v>
+      </c>
+      <c r="C21" s="8">
+        <f t="shared" ref="C21:I21" si="5">C2</f>
+        <v>0.52380000000000004</v>
+      </c>
+      <c r="D21" s="8">
+        <f t="shared" si="5"/>
+        <v>0.25009999999999999</v>
+      </c>
+      <c r="E21" s="8">
+        <f t="shared" si="5"/>
+        <v>0.44190000000000002</v>
+      </c>
+      <c r="F21" s="8">
+        <f t="shared" si="5"/>
+        <v>0.85119999999999996</v>
+      </c>
+      <c r="G21" s="8">
+        <f t="shared" si="5"/>
+        <v>0.45600000000000002</v>
+      </c>
+      <c r="H21" s="8">
+        <f t="shared" si="5"/>
+        <v>0.51480000000000004</v>
+      </c>
+      <c r="I21" s="8">
+        <f t="shared" si="5"/>
+        <v>0.52883445207491886</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
+      <c r="A22" t="s">
+        <v>68</v>
+      </c>
+      <c r="B22" s="8">
+        <f>B3-B2</f>
+        <v>0</v>
+      </c>
+      <c r="C22" s="8">
+        <f t="shared" ref="C22:I22" si="6">C3-C2</f>
+        <v>0.24559999999999993</v>
+      </c>
+      <c r="D22" s="8">
+        <f t="shared" si="6"/>
+        <v>0.27929999999999999</v>
+      </c>
+      <c r="E22" s="8">
+        <f t="shared" si="6"/>
+        <v>0.19419999999999998</v>
+      </c>
+      <c r="F22" s="8">
+        <f t="shared" si="6"/>
+        <v>0.14880000000000004</v>
+      </c>
+      <c r="G22" s="8">
+        <f t="shared" si="6"/>
+        <v>0.16949999999999993</v>
+      </c>
+      <c r="H22" s="8">
+        <f t="shared" si="6"/>
+        <v>3.1999999999999917E-2</v>
+      </c>
+      <c r="I22" s="8">
+        <f t="shared" si="6"/>
+        <v>0.17853342452070164</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
+      <c r="A23" t="s">
+        <v>69</v>
+      </c>
+      <c r="B23" s="8">
+        <f>B5-B3</f>
+        <v>0</v>
+      </c>
+      <c r="C23" s="8">
+        <f t="shared" ref="C23:I23" si="7">C5-C3</f>
+        <v>0.23060000000000003</v>
+      </c>
+      <c r="D23" s="8">
+        <f t="shared" si="7"/>
+        <v>0.16930000000000001</v>
+      </c>
+      <c r="E23" s="8">
+        <f t="shared" si="7"/>
+        <v>0.3639</v>
+      </c>
+      <c r="F23" s="8">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="G23" s="8">
+        <f t="shared" si="7"/>
+        <v>0.3297000000000001</v>
+      </c>
+      <c r="H23" s="8">
+        <f t="shared" si="7"/>
+        <v>8.6800000000000099E-2</v>
+      </c>
+      <c r="I23" s="8">
+        <f t="shared" si="7"/>
+        <v>0.17693295256912822</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11">
+      <c r="A24" t="s">
+        <v>70</v>
+      </c>
+      <c r="B24" s="8">
+        <f>B7-B5</f>
+        <v>0</v>
+      </c>
+      <c r="C24" s="8">
+        <f t="shared" ref="C24:I24" si="8">C7-C5</f>
+        <v>0</v>
+      </c>
+      <c r="D24" s="8">
+        <f t="shared" si="8"/>
+        <v>0.30130000000000001</v>
+      </c>
+      <c r="E24" s="8">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="F24" s="8">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="G24" s="8">
+        <f t="shared" si="8"/>
+        <v>4.4799999999999951E-2</v>
+      </c>
+      <c r="H24" s="8">
+        <f t="shared" si="8"/>
+        <v>6.019999999999992E-2</v>
+      </c>
+      <c r="I24" s="8">
+        <f t="shared" si="8"/>
+        <v>6.4814931242541673E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11">
+      <c r="A25" t="s">
+        <v>71</v>
+      </c>
+      <c r="B25" s="8">
+        <f>B9-B7</f>
+        <v>0</v>
+      </c>
+      <c r="C25" s="8">
+        <f t="shared" ref="C25:I25" si="9">C9-C7</f>
+        <v>0</v>
+      </c>
+      <c r="D25" s="8">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="E25" s="8">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="F25" s="8">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="G25" s="8">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="H25" s="8">
+        <f t="shared" si="9"/>
+        <v>0.19140000000000001</v>
+      </c>
+      <c r="I25" s="8">
+        <f t="shared" si="9"/>
+        <v>3.3614856016683903E-2</v>
       </c>
     </row>
   </sheetData>
